--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/189.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/189.xlsx
@@ -479,13 +479,13 @@
         <v>-3.683513385271964</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.68473544250714</v>
+        <v>-14.72378978188401</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.079918130384988</v>
+        <v>-0.04723974249203974</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.15660858041596</v>
+        <v>-11.20868976112035</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.562372131645078</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.84015416954127</v>
+        <v>-14.87537246418552</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01240112463020667</v>
+        <v>0.02472864622892846</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.86406107341759</v>
+        <v>-10.91264660926324</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.401617144863442</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.2006507282882</v>
+        <v>-15.23920756015708</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0261033380273097</v>
+        <v>0.06026115614137301</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.49765988608905</v>
+        <v>-10.55053969726678</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.225687518565655</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.70915577066084</v>
+        <v>-15.75149627805098</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1521167528789231</v>
+        <v>0.1912889229813675</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.31050541696657</v>
+        <v>-10.36566328883876</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.042436268729348</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.19302109908535</v>
+        <v>-16.23833355922057</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1440780789341033</v>
+        <v>0.1813911420330226</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.15115899907993</v>
+        <v>-10.20862111625226</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.865633624834297</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.76154125768447</v>
+        <v>-16.81393665365706</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2753938764366158</v>
+        <v>0.3240317814936281</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.00367420756788</v>
+        <v>-10.06066500183791</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.707004052989464</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.34558888745387</v>
+        <v>-17.40403292733933</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4268325434068612</v>
+        <v>0.4704560964754925</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.798308345192565</v>
+        <v>-9.855076570314289</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.576356972755575</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.0700907421093</v>
+        <v>-18.13628542527707</v>
       </c>
       <c r="F9" t="n">
-        <v>0.702661179676346</v>
+        <v>0.7519929767839698</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.83475731630393</v>
+        <v>-9.892494371835943</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.475028544129543</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.55138997917684</v>
+        <v>-18.62207532221932</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7466251326188621</v>
+        <v>0.7898428242993999</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.489356182733513</v>
+        <v>-9.544723531451172</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.401183994063905</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.15367518680476</v>
+        <v>-19.22988548164645</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8721410399624899</v>
+        <v>0.9153325470373442</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.441385985121428</v>
+        <v>-9.498939748413656</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.344851519256325</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.69996461517862</v>
+        <v>-19.77804710932668</v>
       </c>
       <c r="F12" t="n">
-        <v>1.028633335829642</v>
+        <v>1.077480717732122</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.949652182689039</v>
+        <v>-9.007965299546088</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.292357781844924</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.51141245300596</v>
+        <v>-20.59330480728096</v>
       </c>
       <c r="F13" t="n">
-        <v>1.212174329367799</v>
+        <v>1.264609002248912</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.455365381202514</v>
+        <v>-8.520984003045244</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.234279019262832</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.34317954484366</v>
+        <v>-21.42556940662664</v>
       </c>
       <c r="F14" t="n">
-        <v>1.530906442049621</v>
+        <v>1.589298112723719</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.996113582120446</v>
+        <v>-8.070661154501234</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.158330578297622</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.16596531693194</v>
+        <v>-22.25041067026107</v>
       </c>
       <c r="F15" t="n">
-        <v>1.64308129279753</v>
+        <v>1.703855762588822</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.552912946322335</v>
+        <v>-7.63531590040816</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.056213276810426</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.02411339899571</v>
+        <v>-23.10628069163039</v>
       </c>
       <c r="F16" t="n">
-        <v>1.920559559225072</v>
+        <v>1.983769197344925</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.976354113778403</v>
+        <v>-7.052826254676925</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.922553863404976</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.63789364851867</v>
+        <v>-23.71811018802993</v>
       </c>
       <c r="F17" t="n">
-        <v>2.110738350303984</v>
+        <v>2.174916818834126</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.888989176915565</v>
+        <v>-6.968053593776749</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.755132055940171</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.44942004016307</v>
+        <v>-24.53195391727731</v>
       </c>
       <c r="F18" t="n">
-        <v>2.524376566285478</v>
+        <v>2.595467770716051</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.488011217782021</v>
+        <v>-6.566866157797737</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.560976094461134</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.29836423332911</v>
+        <v>-25.38468178596461</v>
       </c>
       <c r="F19" t="n">
-        <v>2.78918148356223</v>
+        <v>2.86132007222014</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.186220544977393</v>
+        <v>-6.261370363288901</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.352555966572693</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.05147276969372</v>
+        <v>-26.13790815305479</v>
       </c>
       <c r="F20" t="n">
-        <v>3.011069832123803</v>
+        <v>3.083051313147613</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.070275111011067</v>
+        <v>-6.154576449008942</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.150111660701605</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.63537638413186</v>
+        <v>-26.72215216736682</v>
       </c>
       <c r="F21" t="n">
-        <v>3.329710298685732</v>
+        <v>3.398890026901412</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.741998709557627</v>
+        <v>-5.820709634242085</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.9789617134208167</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.22149259775025</v>
+        <v>-27.30900154994435</v>
       </c>
       <c r="F22" t="n">
-        <v>3.538165944531694</v>
+        <v>3.601218475017447</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.592144211231231</v>
+        <v>-5.681302793583385</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.8637085614933872</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.67013963153052</v>
+        <v>-27.75370780056926</v>
       </c>
       <c r="F23" t="n">
-        <v>3.721196338259025</v>
+        <v>3.783227669123123</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.394555176743901</v>
+        <v>-5.480309760357207</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.8273360753643147</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.8992156543522</v>
+        <v>-27.98379193070975</v>
       </c>
       <c r="F24" t="n">
-        <v>3.856832595699307</v>
+        <v>3.919544726311175</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.231713113998512</v>
+        <v>-5.318698374078941</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.8823143564476987</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.16754240109337</v>
+        <v>-28.24940857076269</v>
       </c>
       <c r="F25" t="n">
-        <v>4.171833402071236</v>
+        <v>4.235173963219506</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.939335806937086</v>
+        <v>-5.023440760392334</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.036938787290756</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.12766324663748</v>
+        <v>-28.20894026267891</v>
       </c>
       <c r="F26" t="n">
-        <v>4.330197897244755</v>
+        <v>4.399482363883169</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.941954267505431</v>
+        <v>-5.029279927459744</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.28950466536798</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.02069913242057</v>
+        <v>-28.09921367256241</v>
       </c>
       <c r="F27" t="n">
-        <v>4.284767606383965</v>
+        <v>4.349783982295977</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.761031734535618</v>
+        <v>-4.839009490260939</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.627701233471956</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.96844775177925</v>
+        <v>-28.04952838327806</v>
       </c>
       <c r="F28" t="n">
-        <v>4.266778782279434</v>
+        <v>4.325641775855834</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.67912628795778</v>
+        <v>-4.751016122861698</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.036602944944394</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.75711179930811</v>
+        <v>-27.83313880191001</v>
       </c>
       <c r="F29" t="n">
-        <v>4.255702694075334</v>
+        <v>4.312916057493676</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.560889700994152</v>
+        <v>-4.62944099867343</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.492845887764497</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.6123371144843</v>
+        <v>-27.68616461020879</v>
       </c>
       <c r="F30" t="n">
-        <v>4.160652575444402</v>
+        <v>4.212733756148788</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.514673871962859</v>
+        <v>-4.582780031345518</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.972961824312506</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.16899246335493</v>
+        <v>-27.23984800633435</v>
       </c>
       <c r="F31" t="n">
-        <v>4.016741982608149</v>
+        <v>4.065942856687355</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.608925360120445</v>
+        <v>-4.669935491362889</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.453771914631759</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.79415983299631</v>
+        <v>-26.86178157717383</v>
       </c>
       <c r="F32" t="n">
-        <v>3.932034783222182</v>
+        <v>3.978433904493259</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.689351376477168</v>
+        <v>-4.749654523366159</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.907868964202688</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.37451225001046</v>
+        <v>-26.44208162497661</v>
       </c>
       <c r="F33" t="n">
-        <v>3.799226463195712</v>
+        <v>3.844682938662185</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.633015197349221</v>
+        <v>-4.677738503856557</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.319143828634814</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.88912821445631</v>
+        <v>-25.95447189793937</v>
       </c>
       <c r="F34" t="n">
-        <v>3.671340849037732</v>
+        <v>3.713236218131255</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.456727339585379</v>
+        <v>-4.494249879529766</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.673743888657839</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.48394762611057</v>
+        <v>-25.5455469109809</v>
       </c>
       <c r="F35" t="n">
-        <v>3.431542230188677</v>
+        <v>3.474511168115222</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.466101428420055</v>
+        <v>-4.496920709309479</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.963707569570379</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.79474261991643</v>
+        <v>-24.856734673872</v>
       </c>
       <c r="F36" t="n">
-        <v>3.217823478600341</v>
+        <v>3.253774942203721</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.737256112575044</v>
+        <v>-4.76468448702846</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.19389414302865</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.31777693508951</v>
+        <v>-24.37624715958066</v>
       </c>
       <c r="F37" t="n">
-        <v>3.086481496492145</v>
+        <v>3.124213513282</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.73427106752713</v>
+        <v>-4.755663890370511</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.369403074374497</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.90423036522791</v>
+        <v>-23.95972863697398</v>
       </c>
       <c r="F38" t="n">
-        <v>3.01415961559445</v>
+        <v>3.0507918789456</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.876859337776369</v>
+        <v>-4.900949175005145</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.505437045242098</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.40547908847235</v>
+        <v>-23.45930154545469</v>
       </c>
       <c r="F39" t="n">
-        <v>2.985513656976754</v>
+        <v>3.022983827709774</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.750361507719612</v>
+        <v>-4.769960685073675</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.621075786668306</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.02330167621953</v>
+        <v>-23.0754090415296</v>
       </c>
       <c r="F40" t="n">
-        <v>3.071058763744592</v>
+        <v>3.116227208548547</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.739141404184252</v>
+        <v>-4.753830967972669</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.729127084329494</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.49348236482056</v>
+        <v>-22.54450306899476</v>
       </c>
       <c r="F41" t="n">
-        <v>3.090671033401498</v>
+        <v>3.13096914154833</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.66729084618886</v>
+        <v>-4.681744748526126</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.847835464370954</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.81967390676828</v>
+        <v>-21.86646579712461</v>
       </c>
       <c r="F42" t="n">
-        <v>3.187004197710918</v>
+        <v>3.225128983586024</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.694077697803031</v>
+        <v>-4.709709907396053</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.988008317177631</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.15708555225137</v>
+        <v>-21.20305262752867</v>
       </c>
       <c r="F43" t="n">
-        <v>3.30496584631487</v>
+        <v>3.343614324303645</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.735501743994253</v>
+        <v>-4.754695059960223</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.152591077585279</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.86931673579023</v>
+        <v>-20.91270462740771</v>
       </c>
       <c r="F44" t="n">
-        <v>3.213607757085305</v>
+        <v>3.24914026699775</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.788250632143567</v>
+        <v>-4.805126610506552</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.344047130909919</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.38503245367478</v>
+        <v>-20.42495088503921</v>
       </c>
       <c r="F45" t="n">
-        <v>3.338403587772638</v>
+        <v>3.377523388663715</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.737701250871662</v>
+        <v>-4.752011137877669</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.555159160781939</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.05617999089631</v>
+        <v>-20.09789206775005</v>
       </c>
       <c r="F46" t="n">
-        <v>3.367101915601701</v>
+        <v>3.405252886082491</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.718481750300008</v>
+        <v>-4.723548471499757</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.777535621613974</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.51540242201881</v>
+        <v>-19.55263693130068</v>
       </c>
       <c r="F47" t="n">
-        <v>3.375899943111341</v>
+        <v>3.412270360405656</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.990421972625501</v>
+        <v>-4.992490556474493</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.003407012104507</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.04119921309149</v>
+        <v>-19.07705903057498</v>
       </c>
       <c r="F48" t="n">
-        <v>3.307008245558179</v>
+        <v>3.340760202284149</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.106210298957726</v>
+        <v>-5.107493344636215</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.218332140970253</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.65085220386543</v>
+        <v>-18.69273448065611</v>
       </c>
       <c r="F49" t="n">
-        <v>3.326463407580984</v>
+        <v>3.359508379953501</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.393088838825628</v>
+        <v>-5.396937975861095</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.415460087950133</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.1374244556243</v>
+        <v>-18.17734288698872</v>
       </c>
       <c r="F50" t="n">
-        <v>3.464089695053208</v>
+        <v>3.503602265029538</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.316132282721962</v>
+        <v>-5.307321162909481</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.590232410134087</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.4715761176998</v>
+        <v>-17.51332747146206</v>
       </c>
       <c r="F51" t="n">
-        <v>3.479617166223496</v>
+        <v>3.521983858219321</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.529170234562529</v>
+        <v>-5.520057991784688</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.737045885613433</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.0800246166123</v>
+        <v>-17.12058457081596</v>
       </c>
       <c r="F52" t="n">
-        <v>3.310569351931128</v>
+        <v>3.349165460708537</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.814844282568991</v>
+        <v>-5.816428451212841</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.858240674702566</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.68866950006742</v>
+        <v>-16.73166462259965</v>
       </c>
       <c r="F53" t="n">
-        <v>3.346520815534508</v>
+        <v>3.382655571377672</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.846134886360717</v>
+        <v>-5.845637378852731</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.954658871366523</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.48875003567426</v>
+        <v>-16.53745340224548</v>
       </c>
       <c r="F54" t="n">
-        <v>3.082370513399843</v>
+        <v>3.116881823690633</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.025263773841213</v>
+        <v>-6.020589821726717</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.030011025982489</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.19668694388104</v>
+        <v>-16.24882049379679</v>
       </c>
       <c r="F55" t="n">
-        <v>2.934479860499705</v>
+        <v>2.97001237041215</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.17057524308153</v>
+        <v>-6.16071673904171</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.091193880480473</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.86446975927224</v>
+        <v>-15.92220681480425</v>
       </c>
       <c r="F56" t="n">
-        <v>2.880722865031578</v>
+        <v>2.916360113366756</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.47647689897846</v>
+        <v>-6.474853453426086</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.138230483400099</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.3180625001728</v>
+        <v>-15.37532823280251</v>
       </c>
       <c r="F57" t="n">
-        <v>2.914265344912081</v>
+        <v>2.955741760314669</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.734329803446255</v>
+        <v>-6.73201246584327</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.173595451513961</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.11425462183565</v>
+        <v>-15.1750159993241</v>
       </c>
       <c r="F58" t="n">
-        <v>2.755298603807843</v>
+        <v>2.798267541734387</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.709480612652658</v>
+        <v>-6.708551059150897</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.199380510357791</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.76863091911692</v>
+        <v>-14.83165726499699</v>
       </c>
       <c r="F59" t="n">
-        <v>2.878497173548485</v>
+        <v>2.926938694062871</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.820490248447654</v>
+        <v>-6.817596849519632</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.210540676259088</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.71097241740196</v>
+        <v>-14.7781621155857</v>
       </c>
       <c r="F60" t="n">
-        <v>2.697456809853097</v>
+        <v>2.745845961156116</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823580031918302</v>
+        <v>-6.823737139552402</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.204521617932459</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.36735183701802</v>
+        <v>-14.43338941255169</v>
       </c>
       <c r="F61" t="n">
-        <v>2.583161006044828</v>
+        <v>2.632126218672884</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.228171466636162</v>
+        <v>-7.233984449097889</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.176880640673305</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.15744294555663</v>
+        <v>-14.23039325699072</v>
       </c>
       <c r="F62" t="n">
-        <v>2.535793054363463</v>
+        <v>2.587167250714396</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.177399516215949</v>
+        <v>-7.176234301263035</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.121760221951805</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.83820023306398</v>
+        <v>-13.91176588273164</v>
       </c>
       <c r="F63" t="n">
-        <v>2.463523542677135</v>
+        <v>2.514583523759867</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.375708627359574</v>
+        <v>-7.380448040988278</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.038185769507162</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.64888553397262</v>
+        <v>-13.72657525903542</v>
       </c>
       <c r="F64" t="n">
-        <v>2.374103114268146</v>
+        <v>2.427179309988504</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.398188111338817</v>
+        <v>-7.390660037204825</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.921924185544706</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.45847108144256</v>
+        <v>-13.53779734436057</v>
       </c>
       <c r="F65" t="n">
-        <v>2.137315725072689</v>
+        <v>2.178242263755924</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.741415922637508</v>
+        <v>-7.742253830019378</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.76981020272906</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.24225170001145</v>
+        <v>-13.32308357775627</v>
       </c>
       <c r="F66" t="n">
-        <v>2.07072827281967</v>
+        <v>2.11183810374269</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.788037613056894</v>
+        <v>-7.783232737913981</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.585500162420229</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.0721434091889</v>
+        <v>-13.15377391740706</v>
       </c>
       <c r="F67" t="n">
-        <v>2.3382563890875</v>
+        <v>2.395836336985412</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.862310247078006</v>
+        <v>-7.865805891936747</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.366518051806186</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.02095250507775</v>
+        <v>-13.10555496604099</v>
       </c>
       <c r="F68" t="n">
-        <v>2.052896556349239</v>
+        <v>2.099321862226</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.766147282705528</v>
+        <v>-7.76138168447114</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.114030717846794</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.8803673571633</v>
+        <v>-12.96559824866294</v>
       </c>
       <c r="F69" t="n">
-        <v>2.106051305886647</v>
+        <v>2.164940484068731</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.838482255906064</v>
+        <v>-7.833690473065993</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.832932499552085</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.85505993577024</v>
+        <v>-12.94598597900603</v>
       </c>
       <c r="F70" t="n">
-        <v>2.106260782732114</v>
+        <v>2.161641223752615</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.748538135383407</v>
+        <v>-7.741350461123299</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.52464988661994</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.55042823324896</v>
+        <v>-12.63853943137378</v>
       </c>
       <c r="F71" t="n">
-        <v>2.06117089174521</v>
+        <v>2.11775582462715</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.462157103023491</v>
+        <v>-7.444220648130326</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.196918821827178</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.48292431979702</v>
+        <v>-12.57017142593428</v>
       </c>
       <c r="F72" t="n">
-        <v>2.071356703356073</v>
+        <v>2.124799483555998</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.524987064360934</v>
+        <v>-7.511580546251007</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.8555401669678</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.17686555626599</v>
+        <v>-12.24299477791955</v>
       </c>
       <c r="F73" t="n">
-        <v>2.047371604550031</v>
+        <v>2.101023861595424</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.263874176485549</v>
+        <v>-7.239522493199939</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.501771658854646</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.37851320463425</v>
+        <v>-12.44510065688727</v>
       </c>
       <c r="F74" t="n">
-        <v>2.071985133892476</v>
+        <v>2.123935391568445</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.211020549913501</v>
+        <v>-7.191303541833862</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.14651203433569</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.51116441702662</v>
+        <v>-12.578052992245</v>
       </c>
       <c r="F75" t="n">
-        <v>2.00398371293255</v>
+        <v>2.055933970608519</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.137049038857749</v>
+        <v>-7.12158702920167</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.792157901800877</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.77240822793043</v>
+        <v>-12.83353618989844</v>
       </c>
       <c r="F76" t="n">
-        <v>1.985837781193918</v>
+        <v>2.034488778553772</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.795326842385856</v>
+        <v>-6.768828021434203</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.440435088409937</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.34922890653119</v>
+        <v>-13.40765985411382</v>
       </c>
       <c r="F77" t="n">
-        <v>1.9781133225173</v>
+        <v>2.028152103978377</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.734578557200248</v>
+        <v>-6.716432625461615</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.097636173535168</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.84265161603017</v>
+        <v>-13.89834627231887</v>
       </c>
       <c r="F78" t="n">
-        <v>2.027890257921542</v>
+        <v>2.079578669540676</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.745157137896363</v>
+        <v>-6.738139663573198</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.762477881826869</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.33142655802032</v>
+        <v>-14.3866106144982</v>
       </c>
       <c r="F79" t="n">
-        <v>2.073372917993698</v>
+        <v>2.123987760779811</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.645969851567446</v>
+        <v>-6.644699898191798</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.440320225562125</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.88015115472275</v>
+        <v>-14.93462822684717</v>
       </c>
       <c r="F80" t="n">
-        <v>1.965989850085861</v>
+        <v>2.009482480126075</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.297125442349655</v>
+        <v>-6.289649737427029</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.134240017642834</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.65264939159595</v>
+        <v>-15.7062230948243</v>
       </c>
       <c r="F81" t="n">
-        <v>2.063475137045354</v>
+        <v>2.109612412259596</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.23701868000329</v>
+        <v>-6.233732511990017</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.84657173294525</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.38255836732502</v>
+        <v>-16.43429914815552</v>
       </c>
       <c r="F82" t="n">
-        <v>2.037002500699383</v>
+        <v>2.078609839130389</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.136875655566928</v>
+        <v>-6.132463549509266</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.588407541976982</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.25887856573311</v>
+        <v>-17.31119540788865</v>
       </c>
       <c r="F83" t="n">
-        <v>2.017206938802694</v>
+        <v>2.060647199631541</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.842796349136076</v>
+        <v>-5.835805059418595</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.366587579247671</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.31320171357731</v>
+        <v>-18.36428787926573</v>
       </c>
       <c r="F84" t="n">
-        <v>2.03189650259111</v>
+        <v>2.070073657677583</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.728984960532952</v>
+        <v>-5.727597176431729</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.193163491343488</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.11284029424142</v>
+        <v>-19.16299690642807</v>
       </c>
       <c r="F85" t="n">
-        <v>2.057164647075642</v>
+        <v>2.09788170891341</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.589250812303209</v>
+        <v>-5.59296902631026</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.079109435396263</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.25926779257716</v>
+        <v>-20.31386269542716</v>
       </c>
       <c r="F86" t="n">
-        <v>2.045145913066937</v>
+        <v>2.085286913579669</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252346583277073</v>
+        <v>-5.253066659933368</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.036835825143243</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.32502052080219</v>
+        <v>-21.38009983885733</v>
       </c>
       <c r="F87" t="n">
-        <v>1.874605576250613</v>
+        <v>1.900135566791979</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.894232823647339</v>
+        <v>-4.888446025791296</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.079638121204754</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.6676361772212</v>
+        <v>-22.72122297275238</v>
       </c>
       <c r="F88" t="n">
-        <v>1.967508557215502</v>
+        <v>1.996102146621831</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661818263601019</v>
+        <v>-4.661962278932277</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.21307869687336</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.05096889547797</v>
+        <v>-24.09824520103945</v>
       </c>
       <c r="F89" t="n">
-        <v>1.831767561352486</v>
+        <v>1.86570281031824</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.278462544092437</v>
+        <v>-4.275307299107581</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.444428174214577</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.52061916637025</v>
+        <v>-25.56646841092197</v>
       </c>
       <c r="F90" t="n">
-        <v>1.619358040048322</v>
+        <v>1.648501506174004</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.162569479337479</v>
+        <v>-4.165253401420032</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.774550736212736</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.16427923433191</v>
+        <v>-27.20935603301597</v>
       </c>
       <c r="F91" t="n">
-        <v>1.415589438619697</v>
+        <v>1.441800228908833</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.06298942392331</v>
+        <v>-4.061104132314101</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.198812345927432</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.76096411969745</v>
+        <v>-28.79817244437364</v>
       </c>
       <c r="F92" t="n">
-        <v>1.293844114494487</v>
+        <v>1.317266244278334</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.793824769800263</v>
+        <v>-3.790185109610264</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.71365496056255</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.61112908038166</v>
+        <v>-30.64507742165025</v>
       </c>
       <c r="F93" t="n">
-        <v>1.155458473457442</v>
+        <v>1.17774157289406</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.785956295792386</v>
+        <v>-3.778559144686811</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.300016812777924</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.6903569715847</v>
+        <v>-32.71961826843595</v>
       </c>
       <c r="F94" t="n">
-        <v>1.042354069207771</v>
+        <v>1.062987538486331</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.781125236043789</v>
+        <v>-3.770546655347675</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.945232427037186</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.72266204940299</v>
+        <v>-34.74743268637954</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6379721113353775</v>
+        <v>0.6591030881219234</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.766920087460516</v>
+        <v>-3.75496681496602</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.633881363729226</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.6943497650641</v>
+        <v>-36.71558548027338</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4129416100917898</v>
+        <v>0.4382490314848463</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.979198685736263</v>
+        <v>-3.969942427627163</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.334702537898833</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.78395985242063</v>
+        <v>-38.80184393810242</v>
       </c>
       <c r="F97" t="n">
-        <v>0.03234836648281304</v>
+        <v>0.0536233586006179</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.978098932297558</v>
+        <v>-3.962257245859069</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.042495346129943</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.00941567406291</v>
+        <v>-41.0182922553896</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1784900784803436</v>
+        <v>-0.1532743032071792</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.178411165775967</v>
+        <v>-4.162098156435176</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.721358877512079</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.38943922305461</v>
+        <v>-43.3949903594595</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.09917690786516704</v>
+        <v>-0.07426225555736234</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.507132705526025</v>
+        <v>-4.491513588235846</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.382674215099192</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79634126978037</v>
+        <v>-45.79607942372353</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3650684862777818</v>
+        <v>-0.3492922613535018</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.691812729411413</v>
+        <v>-4.671676767640838</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.983493139734577</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19508681183574</v>
+        <v>-48.1945107505107</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3031811707449427</v>
+        <v>-0.2807409636742242</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.970848979877121</v>
+        <v>-4.944808389524927</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.580368072575778</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41290982092129</v>
+        <v>-50.40676953088852</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4493305473671307</v>
+        <v>-0.4285661550601532</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.328281939759083</v>
+        <v>-5.305147840637754</v>
       </c>
     </row>
   </sheetData>
